--- a/GDP_w2.xlsx
+++ b/GDP_w2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,96 +463,115 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dogecoin_lag2</t>
+          <t>Bitcoin_lag6</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0101245416624428</v>
+        <v>0.04785556610921152</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2782441088983298</v>
+        <v>0.2752959268899182</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2732256712935414</v>
+        <v>0.1823390678324038</v>
       </c>
       <c r="E2" t="n">
-        <v>1.803609652207286</v>
+        <v>33.76615851446464</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tether_lag0</t>
+          <t>Cardano_lag5</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.007167242593007229</v>
+        <v>0.0001003853817368582</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2782441088983298</v>
+        <v>0.2752959268899182</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2903819209873849</v>
+        <v>0.288386410224558</v>
       </c>
       <c r="E3" t="n">
-        <v>-4.362288976076835</v>
+        <v>-4.755058849771597</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>XRP_lag4</t>
+          <t>Dogecoin_lag5</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007445378110232994</v>
+        <v>0.04957879189151794</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2782441088983298</v>
+        <v>0.2752959268899182</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3089640251148239</v>
+        <v>0.3475696910569859</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.04063490800414</v>
+        <v>-26.25311786613088</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cardano_lag2</t>
+          <t>Dogecoin_lag6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.007969055962274089</v>
+        <v>0.007205401414575935</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2782441088983298</v>
+        <v>0.2752959268899182</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3322067027995778</v>
+        <v>0.4333951656947484</v>
       </c>
       <c r="E5" t="n">
-        <v>-19.39397535311908</v>
+        <v>-57.42883325260706</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Cardano_lag6</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.04942502509113088</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.2752959268899182</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4374155338755468</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-58.88921380607817</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Litecoin_lag5</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.004647638650774696</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2782441088983298</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.3806257073623612</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-36.79560328137674</v>
+      <c r="B7" t="n">
+        <v>0.01018908302371104</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2752959268899182</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4896093010971637</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-77.84836362397122</v>
       </c>
     </row>
   </sheetData>

--- a/GDP_w2.xlsx
+++ b/GDP_w2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,96 +463,96 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bitcoin_lag6</t>
+          <t>USD Coin_lag4</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04785556610921152</v>
+        <v>0.02432921086123148</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2752959268899182</v>
+        <v>0.1359863542043684</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1823390678324038</v>
+        <v>0.1177680989473364</v>
       </c>
       <c r="E2" t="n">
-        <v>33.76615851446464</v>
+        <v>13.3971201475499</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cardano_lag5</t>
+          <t>Tether_lag2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0001003853817368582</v>
+        <v>0.0007012948742031494</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2752959268899182</v>
+        <v>0.1359863542043684</v>
       </c>
       <c r="D3" t="n">
-        <v>0.288386410224558</v>
+        <v>0.1360090684072668</v>
       </c>
       <c r="E3" t="n">
-        <v>-4.755058849771597</v>
+        <v>-0.01670329573231132</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dogecoin_lag5</t>
+          <t>Dogecoin_lag0</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04957879189151794</v>
+        <v>0.04397874495978098</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2752959268899182</v>
+        <v>0.1359863542043684</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3475696910569859</v>
+        <v>0.1715684171730409</v>
       </c>
       <c r="E4" t="n">
-        <v>-26.25311786613088</v>
+        <v>-26.16590699622522</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dogecoin_lag6</t>
+          <t>USD Coin_lag5</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.007205401414575935</v>
+        <v>0.008995531146823438</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2752959268899182</v>
+        <v>0.1359863542043684</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4333951656947484</v>
+        <v>0.1807768123598854</v>
       </c>
       <c r="E5" t="n">
-        <v>-57.42883325260706</v>
+        <v>-32.93746524611083</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cardano_lag6</t>
+          <t>Dogecoin_lag5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04942502509113088</v>
+        <v>0.03400316441829839</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2752959268899182</v>
+        <v>0.1359863542043684</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4374155338755468</v>
+        <v>0.1866759473430717</v>
       </c>
       <c r="E6" t="n">
-        <v>-58.88921380607817</v>
+        <v>-37.27549976266288</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,54 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01018908302371104</v>
+        <v>0.01014725387472174</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2752959268899182</v>
+        <v>0.1359863542043684</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4896093010971637</v>
+        <v>0.19290306689835</v>
       </c>
       <c r="E7" t="n">
-        <v>-77.84836362397122</v>
+        <v>-41.85472360590221</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Cardano_lag2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.002590974584288047</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1359863542043684</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2128423795846544</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-56.5174541445402</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Cardano_lag5</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.86328391979569e-12</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1359863542043684</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5977750589639232</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-339.5845910138536</v>
       </c>
     </row>
   </sheetData>
